--- a/RepTrap.xlsx
+++ b/RepTrap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koob8\Desktop\yelp\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonah/Desktop/User-Trust-and-Malicious-Voting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A16C84-B3CE-4426-8234-98568C9CD9EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C553AB4-3B79-0549-9ADA-EE7D47B5EEAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9360" yWindow="2445" windowWidth="18810" windowHeight="8505" xr2:uid="{59CE19EF-41E6-4C46-95F2-E41803CF3C19}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="24640" windowHeight="15540" xr2:uid="{59CE19EF-41E6-4C46-95F2-E41803CF3C19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>RepTrap</t>
   </si>
@@ -72,9 +72,6 @@
     <t>failure</t>
   </si>
   <si>
-    <t>xmWYvUV-LmotddwQYNtkzQ</t>
-  </si>
-  <si>
     <t>Total Trust</t>
   </si>
   <si>
@@ -95,12 +92,24 @@
   <si>
     <t>Failure</t>
   </si>
+  <si>
+    <t>iBPyahdJRP5y0t25fF2W9w</t>
+  </si>
+  <si>
+    <t>xmQYvUV-LmotddwQYNtkzQ</t>
+  </si>
+  <si>
+    <t>Good trust</t>
+  </si>
+  <si>
+    <t>Optimization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,8 +245,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="percentStacked"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -246,60 +256,43 @@
             <c:v>RepTrap Optimized</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$29</c:f>
+              <c:f>Sheet1!$B$22:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -307,41 +300,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$D$29</c:f>
+              <c:f>Sheet1!$D$22:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>430</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>252</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7852-4E29-BF1C-1E7C96F7F6D2}"/>
@@ -355,60 +344,43 @@
             <c:v>RepTrap</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$29</c:f>
+              <c:f>Sheet1!$B$22:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -416,41 +388,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$21:$E$29</c:f>
+              <c:f>Sheet1!$E$22:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>435</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>259</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>185</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>103</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7852-4E29-BF1C-1E7C96F7F6D2}"/>
@@ -464,60 +432,43 @@
             <c:v>Honest Voting</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$29</c:f>
+              <c:f>Sheet1!$B$22:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -525,41 +476,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$21:$F$29</c:f>
+              <c:f>Sheet1!$F$22:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3821</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>405</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>156</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>126</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>103</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7852-4E29-BF1C-1E7C96F7F6D2}"/>
@@ -574,11 +521,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="539544000"/>
         <c:axId val="87607440"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="539544000"/>
         <c:scaling>
@@ -586,6 +532,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Malicious</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Users</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -651,7 +657,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Votes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -841,8 +907,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="percentStacked"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -851,32 +918,18 @@
             <c:v>RepTrap Optimized</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$37:$B$42</c:f>
+              <c:f>Sheet1!$B$40:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -903,7 +956,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$37:$D$42</c:f>
+              <c:f>Sheet1!$D$40:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -928,7 +981,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2DB3-4171-8F10-9B6FA363ABEB}"/>
@@ -942,32 +994,18 @@
             <c:v>RepTrap</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$37:$B$42</c:f>
+              <c:f>Sheet1!$B$40:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -994,7 +1032,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$37:$E$42</c:f>
+              <c:f>Sheet1!$E$40:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1019,7 +1057,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2DB3-4171-8F10-9B6FA363ABEB}"/>
@@ -1033,32 +1070,18 @@
             <c:v>Honest Voting</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$37:$B$42</c:f>
+              <c:f>Sheet1!$B$40:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1085,7 +1108,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$37:$F$42</c:f>
+              <c:f>Sheet1!$F$40:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1110,7 +1133,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2DB3-4171-8F10-9B6FA363ABEB}"/>
@@ -1125,11 +1147,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="539545312"/>
         <c:axId val="539546296"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="539545312"/>
         <c:scaling>
@@ -1137,6 +1158,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Malicious</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Users</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1202,7 +1283,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Votes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1692,6 +1833,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Malicious</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Users</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1757,6 +1958,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Votes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1978,7 +2239,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$37:$B$42</c:f>
+              <c:f>Sheet1!$B$40:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2005,7 +2266,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$37:$D$42</c:f>
+              <c:f>Sheet1!$D$40:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2057,7 +2318,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$37:$B$42</c:f>
+              <c:f>Sheet1!$B$40:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2084,7 +2345,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$37:$E$42</c:f>
+              <c:f>Sheet1!$E$40:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2136,7 +2397,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$37:$B$42</c:f>
+              <c:f>Sheet1!$B$40:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2163,7 +2424,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$37:$F$42</c:f>
+              <c:f>Sheet1!$F$40:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2214,6 +2475,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Malicious</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Users</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2279,6 +2600,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Numberof</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Votes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4573,16 +4954,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>10584</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4233</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>786695</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>402167</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>345722</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>20461</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4609,16 +4990,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>232834</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>754945</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>624417</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>313973</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>154517</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4647,14 +5028,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>687917</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>102304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>243417</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>86783</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4683,16 +5064,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>243417</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>723195</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>55034</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>282222</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5019,19 +5400,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85D7876-B509-A24A-BAE8-0D4815064B9F}">
-  <dimension ref="A1:GA42"/>
+  <dimension ref="A1:GA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:183">
+    <row r="1" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5039,7 +5421,7 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -5051,12 +5433,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:183">
+    <row r="2" spans="1:183" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:183">
+    <row r="3" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5064,14 +5446,14 @@
         <v>2</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:183">
+    <row r="4" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5094,7 +5476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:183">
+    <row r="5" spans="1:183" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>5</v>
       </c>
@@ -5118,7 +5500,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:183">
+    <row r="6" spans="1:183" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -5135,7 +5517,7 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -5663,7 +6045,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:183">
+    <row r="7" spans="1:183" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
@@ -5680,7 +6062,7 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7">
         <f>(I6 + 1 )/ (I6 + 2)</f>
@@ -6383,7 +6765,7 @@
         <v>0.99431818181818177</v>
       </c>
     </row>
-    <row r="8" spans="1:183">
+    <row r="8" spans="1:183" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>2</v>
       </c>
@@ -6400,7 +6782,7 @@
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <f xml:space="preserve"> $H$5 * I7</f>
@@ -7103,7 +7485,7 @@
         <v>64.630681818181813</v>
       </c>
     </row>
-    <row r="9" spans="1:183">
+    <row r="9" spans="1:183" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1</v>
       </c>
@@ -7823,31 +8205,32 @@
         <v>11375</v>
       </c>
     </row>
-    <row r="12" spans="1:183">
+    <row r="12" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>40.49</v>
+      </c>
     </row>
-    <row r="13" spans="1:183">
-      <c r="C13">
-        <v>40.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:183">
+    <row r="14" spans="1:183" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -7856,7 +8239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:183">
+    <row r="15" spans="1:183" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>31</v>
       </c>
@@ -7871,30 +8254,34 @@
         <v>40.49</v>
       </c>
     </row>
-    <row r="16" spans="1:183">
+    <row r="16" spans="1:183" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16">
         <f xml:space="preserve"> _xlfn.FLOOR.MATH(H15) * I15 + _xlfn.CEILING.MATH((H15 - _xlfn.FLOOR.MATH(H15)) * I15) + I15</f>
         <v>3256</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>34</v>
       </c>
+      <c r="C18">
+        <f xml:space="preserve"> D18 - E18</f>
+        <v>0</v>
+      </c>
       <c r="D18">
         <v>3019</v>
       </c>
@@ -7902,10 +8289,14 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>35</v>
       </c>
+      <c r="C19">
+        <f t="shared" ref="C19:C29" si="217" xml:space="preserve"> D19 - E19</f>
+        <v>-13</v>
+      </c>
       <c r="D19">
         <v>2084</v>
       </c>
@@ -7913,10 +8304,14 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>40</v>
       </c>
+      <c r="C20">
+        <f t="shared" si="217"/>
+        <v>0</v>
+      </c>
       <c r="D20">
         <v>511</v>
       </c>
@@ -7924,10 +8319,14 @@
         <v>511</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>41</v>
       </c>
+      <c r="C21">
+        <f t="shared" si="217"/>
+        <v>-5</v>
+      </c>
       <c r="D21">
         <v>430</v>
       </c>
@@ -7938,10 +8337,14 @@
         <v>3821</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>45</v>
       </c>
+      <c r="C22">
+        <f t="shared" si="217"/>
+        <v>-7</v>
+      </c>
       <c r="D22">
         <v>252</v>
       </c>
@@ -7952,10 +8355,14 @@
         <v>405</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>50</v>
       </c>
+      <c r="C23">
+        <f t="shared" si="217"/>
+        <v>-5</v>
+      </c>
       <c r="D23">
         <v>180</v>
       </c>
@@ -7966,10 +8373,14 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>55</v>
       </c>
+      <c r="C24">
+        <f t="shared" si="217"/>
+        <v>0</v>
+      </c>
       <c r="D24">
         <v>144</v>
       </c>
@@ -7980,10 +8391,14 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>60</v>
       </c>
+      <c r="C25">
+        <f t="shared" si="217"/>
+        <v>-3</v>
+      </c>
       <c r="D25">
         <v>120</v>
       </c>
@@ -7994,10 +8409,14 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>65</v>
       </c>
+      <c r="C26">
+        <f t="shared" si="217"/>
+        <v>-1</v>
+      </c>
       <c r="D26">
         <v>110</v>
       </c>
@@ -8008,10 +8427,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>70</v>
       </c>
+      <c r="C27">
+        <f t="shared" si="217"/>
+        <v>-2</v>
+      </c>
       <c r="D27">
         <v>101</v>
       </c>
@@ -8022,10 +8445,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>75</v>
       </c>
+      <c r="C28">
+        <f t="shared" si="217"/>
+        <v>-2</v>
+      </c>
       <c r="D28">
         <v>91</v>
       </c>
@@ -8036,10 +8463,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>80</v>
       </c>
+      <c r="C29">
+        <f t="shared" si="217"/>
+        <v>-2</v>
+      </c>
       <c r="D29">
         <v>83</v>
       </c>
@@ -8050,150 +8481,205 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
-      <c r="B31" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <f>AVERAGE(C18:C29)</f>
+        <v>-3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="H31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>183.95</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
         <v>10</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
-      <c r="H32">
-        <f xml:space="preserve"> (1 - (2 * $J$32 / $I$32)) / (($J$32 / $I$32) - 1)</f>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <f xml:space="preserve"> (1 - (2 * $J$35 / $I$35)) / (($J$35 / $I$35) - 1)</f>
         <v>-8.6805845511482271</v>
       </c>
-      <c r="I32">
+      <c r="I35">
         <v>160</v>
       </c>
-      <c r="J32">
+      <c r="J35">
         <v>183.95</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
-      <c r="B33">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36">
         <v>160</v>
       </c>
-      <c r="H33">
-        <f xml:space="preserve"> _xlfn.FLOOR.MATH(H32) * I32 + _xlfn.CEILING.MATH((H32 - _xlfn.FLOOR.MATH(H32)) * I32) + I32</f>
+      <c r="H36">
+        <f xml:space="preserve"> _xlfn.FLOOR.MATH(H35) * I35 + _xlfn.CEILING.MATH((H35 - _xlfn.FLOOR.MATH(H35)) * I35) + I35</f>
         <v>-1228</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
-      <c r="B34">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B37">
         <v>180</v>
       </c>
-      <c r="D34">
+      <c r="C37">
+        <f>D37 - E37</f>
+        <v>-18</v>
+      </c>
+      <c r="D37">
         <v>6071</v>
       </c>
-      <c r="E34">
+      <c r="E37">
         <v>6089</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
-      <c r="B35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38">
         <v>184</v>
       </c>
-      <c r="F35" t="s">
-        <v>20</v>
+      <c r="F38" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
-      <c r="B36">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39">
         <v>185</v>
       </c>
-      <c r="F36">
+      <c r="F39">
         <v>32667</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
-      <c r="B37">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40">
         <v>190</v>
       </c>
-      <c r="D37">
+      <c r="C40">
+        <f t="shared" ref="C40:C45" si="218">D40 - E40</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>2758</v>
       </c>
-      <c r="E37">
+      <c r="E40">
         <v>2758</v>
       </c>
-      <c r="F37">
+      <c r="F40">
         <v>5780</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
-      <c r="B38">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41">
         <v>200</v>
       </c>
-      <c r="D38">
+      <c r="C41">
+        <f t="shared" si="218"/>
+        <v>-5</v>
+      </c>
+      <c r="D41">
         <v>1726</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>1731</v>
       </c>
-      <c r="F38">
+      <c r="F41">
         <v>2296</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
-      <c r="B39">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42">
         <v>210</v>
       </c>
-      <c r="D39">
+      <c r="C42">
+        <f t="shared" si="218"/>
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>1282</v>
       </c>
-      <c r="E39">
+      <c r="E42">
         <v>1282</v>
       </c>
-      <c r="F39">
+      <c r="F42">
         <v>1485</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
-      <c r="B40">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43">
         <v>220</v>
       </c>
-      <c r="D40">
+      <c r="C43">
+        <f t="shared" si="218"/>
+        <v>-8</v>
+      </c>
+      <c r="D43">
         <v>1029</v>
       </c>
-      <c r="E40">
+      <c r="E43">
         <v>1037</v>
       </c>
-      <c r="F40">
+      <c r="F43">
         <v>1126</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
-      <c r="B41">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44">
         <v>230</v>
       </c>
-      <c r="D41">
+      <c r="C44">
+        <f t="shared" si="218"/>
+        <v>0</v>
+      </c>
+      <c r="D44">
         <v>875</v>
       </c>
-      <c r="E41">
+      <c r="E44">
         <v>875</v>
       </c>
-      <c r="F41">
+      <c r="F44">
         <v>919</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
-      <c r="B42">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45">
         <v>240</v>
       </c>
-      <c r="D42">
+      <c r="C45">
+        <f t="shared" si="218"/>
+        <v>-4</v>
+      </c>
+      <c r="D45">
         <v>761</v>
       </c>
-      <c r="E42">
+      <c r="E45">
         <v>765</v>
       </c>
-      <c r="F42">
+      <c r="F45">
         <v>799</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46">
+        <f>AVERAGE(C37:C45)</f>
+        <v>-5</v>
       </c>
     </row>
   </sheetData>

--- a/RepTrap.xlsx
+++ b/RepTrap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonah/Desktop/User-Trust-and-Malicious-Voting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C553AB4-3B79-0549-9ADA-EE7D47B5EEAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E135241-100D-7841-ADFD-AECEE40A65B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="24640" windowHeight="15540" xr2:uid="{59CE19EF-41E6-4C46-95F2-E41803CF3C19}"/>
   </bookViews>
@@ -677,12 +677,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Ratio</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Votes</a:t>
+                  <a:t>Number of Votes</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1304,7 +1300,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Ratio</a:t>
+                  <a:t>Number</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -5402,7 +5398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85D7876-B509-A24A-BAE8-0D4815064B9F}">
   <dimension ref="A1:GA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:J46"/>
     </sheetView>
   </sheetViews>
